--- a/KGA_Error/Assets/Resources/DataTable.xlsx
+++ b/KGA_Error/Assets/Resources/DataTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
   <si>
     <t>Script</t>
   </si>
@@ -98,9 +98,6 @@
     <t>sad</t>
   </si>
   <si>
-    <t>smileFase.jpeg</t>
-  </si>
-  <si>
     <t>phase</t>
   </si>
   <si>
@@ -120,6 +117,22 @@
   </si>
   <si>
     <t>Index</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmileFace.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmileFace.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SadFace.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BrokenFase.png</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +485,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -480,13 +495,13 @@
     <col min="2" max="2" width="36.375" customWidth="1"/>
     <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
     <col min="6" max="6" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -616,10 +631,10 @@
         <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -627,16 +642,16 @@
         <v>2002</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -645,16 +660,16 @@
         <v>2003</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -663,7 +678,7 @@
         <v>2004</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
@@ -688,7 +703,7 @@
         <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -697,16 +712,16 @@
         <v>3002</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -715,16 +730,16 @@
         <v>3003</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -733,7 +748,7 @@
         <v>3004</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
@@ -758,7 +773,7 @@
         <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -767,16 +782,16 @@
         <v>4002</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -785,16 +800,16 @@
         <v>4003</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -803,7 +818,7 @@
         <v>4004</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
@@ -814,7 +829,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>5001</v>
       </c>
@@ -828,7 +843,7 @@
         <v>21</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -837,16 +852,16 @@
         <v>5002</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -855,16 +870,16 @@
         <v>5003</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F23" s="1"/>
     </row>
@@ -873,7 +888,7 @@
         <v>5004</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>20</v>
@@ -887,5 +902,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/KGA_Error/Assets/Resources/DataTable.xlsx
+++ b/KGA_Error/Assets/Resources/DataTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="34">
   <si>
     <t>Script</t>
   </si>
@@ -132,7 +132,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BrokenFase.png</t>
+    <t>BrokenFace.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>carcrash.jpeg</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +490,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -829,7 +833,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>5001</v>
       </c>
@@ -879,7 +883,7 @@
         <v>21</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F23" s="1"/>
     </row>

--- a/KGA_Error/Assets/Resources/DataTable.xlsx
+++ b/KGA_Error/Assets/Resources/DataTable.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="7380"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DataTable" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="76">
   <si>
     <t>Script</t>
   </si>
@@ -89,54 +89,233 @@
     <t>intro.mp9</t>
   </si>
   <si>
-    <t>1번방 - 얼굴테스트</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
     <t>phase</t>
   </si>
   <si>
-    <t>2번방 - 음악테스트</t>
-  </si>
-  <si>
-    <t>sound.jpeg</t>
-  </si>
-  <si>
-    <t>3번방 - 도덕테스트</t>
-  </si>
-  <si>
-    <t>carcrash.jpeg</t>
-  </si>
-  <si>
-    <t>가운데방의 결과창</t>
-  </si>
-  <si>
     <t>Index</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SmileFace.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SmileFace.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SadFace.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BrokenFace.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>carcrash.jpeg</t>
+    <t>Is This face happy or sad?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Happy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A father of three passed away in traffic accident.
+How does this make you feel?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>How does this music make you feel?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>happySound</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoorName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FaceTest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MusicTest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoralTest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is This face sad?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weirdSound</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A father of three burned to death.
+How does this make you feel?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeepSound</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FaceButton2.execute;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>commitWrongAnswer();</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dduzzzzz</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>well mayby the coding AI can't fully comprehend what a human is</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>____________________________________________________</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FaceRoom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MusicRoom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>he's in a better Place than you</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>help</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>help
+aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>when are you coming home?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0006</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0007</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Happy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6003</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -176,12 +355,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -199,12 +384,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -487,421 +693,529 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.375" customWidth="1"/>
-    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.75" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1001</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1002</v>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>1003</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>1004</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>1005</v>
+    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>1006</v>
+    <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>1007</v>
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>2003</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>3001</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="C16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>3002</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>3003</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="D17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>3004</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>4001</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>4002</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>4003</v>
+      <c r="C18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>4004</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>5001</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>20</v>
+      <c r="C19" s="6"/>
+      <c r="D19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>5002</v>
+        <v>41</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>5003</v>
+        <v>42</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1">
+        <v>4</v>
+      </c>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>5004</v>
+        <v>46</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1">
+        <v>5</v>
+      </c>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="6">
+        <v>6</v>
+      </c>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/KGA_Error/Assets/Resources/DataTable.xlsx
+++ b/KGA_Error/Assets/Resources/DataTable.xlsx
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="12" x14ac:dyDescent="0.3"/>

--- a/KGA_Error/Assets/Resources/DataTable.xlsx
+++ b/KGA_Error/Assets/Resources/DataTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="119">
   <si>
     <t>Script</t>
   </si>
@@ -406,18 +406,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>^</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>^</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sos</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>kill</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -507,6 +495,38 @@
   </si>
   <si>
     <t>Turn4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>home</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>haha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hahahahah</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -903,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -939,10 +959,10 @@
         <v>76</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -951,32 +971,41 @@
         <v>2</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B2" s="9"/>
-      <c r="D2" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9">
         <v>0</v>
       </c>
+      <c r="I2" s="10">
+        <v>4</v>
+      </c>
+      <c r="J2" s="10">
+        <v>3</v>
+      </c>
+      <c r="K2" s="10">
+        <v>2</v>
+      </c>
+      <c r="L2" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
@@ -1020,6 +1049,9 @@
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1158,7 +1190,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>79</v>
@@ -1258,13 +1290,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="10" customFormat="1" ht="144" x14ac:dyDescent="0.3">
@@ -1280,6 +1312,18 @@
       <c r="H20" s="9">
         <v>3</v>
       </c>
+      <c r="I20" s="10">
+        <v>3</v>
+      </c>
+      <c r="J20" s="10">
+        <v>1</v>
+      </c>
+      <c r="K20" s="10">
+        <v>2</v>
+      </c>
+      <c r="L20" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -1348,13 +1392,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="10" customFormat="1" ht="156" x14ac:dyDescent="0.3">
@@ -1448,13 +1492,13 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="10" customFormat="1" ht="36" x14ac:dyDescent="0.3">
@@ -1537,18 +1581,21 @@
         <v>32</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="G33" s="2">
         <v>5</v>
       </c>
+      <c r="H33" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B34" s="2"/>
       <c r="E34" s="2"/>
@@ -1575,10 +1622,10 @@
         <v>3</v>
       </c>
       <c r="K35" s="10">
+        <v>2</v>
+      </c>
+      <c r="L35" s="10">
         <v>4</v>
-      </c>
-      <c r="L35" s="10">
-        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="36" x14ac:dyDescent="0.3">
@@ -1592,10 +1639,10 @@
         <v>34</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="G36" s="2">
         <v>0</v>
@@ -1612,13 +1659,16 @@
         <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
+      </c>
+      <c r="H37" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -1643,32 +1693,99 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+    <row r="40" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="D40" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="10">
+        <v>6</v>
+      </c>
+      <c r="I40" s="10">
+        <v>3</v>
+      </c>
+      <c r="J40" s="10">
+        <v>4</v>
+      </c>
+      <c r="K40" s="10">
+        <v>1</v>
+      </c>
+      <c r="L40" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="D41" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="10">
+        <v>6</v>
+      </c>
+      <c r="I41" s="10">
+        <v>3</v>
+      </c>
+      <c r="J41" s="10">
+        <v>4</v>
+      </c>
+      <c r="K41" s="10">
+        <v>1</v>
+      </c>
+      <c r="L41" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="D42" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="10">
+        <v>6</v>
+      </c>
+      <c r="I42" s="10">
+        <v>3</v>
+      </c>
+      <c r="J42" s="10">
+        <v>4</v>
+      </c>
+      <c r="K42" s="10">
+        <v>1</v>
+      </c>
+      <c r="L42" s="10">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/KGA_Error/Assets/Resources/DataTable.xlsx
+++ b/KGA_Error/Assets/Resources/DataTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="125">
   <si>
     <t>Script</t>
   </si>
@@ -125,10 +125,6 @@
   </si>
   <si>
     <t>commitWrongAnswer();</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dduzzzzz</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -527,6 +523,34 @@
   </si>
   <si>
     <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9007</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -923,25 +947,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.75" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="5.375" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="14.125" style="3"/>
   </cols>
   <sheetData>
@@ -956,13 +978,13 @@
         <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -971,21 +993,21 @@
         <v>2</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="9"/>
       <c r="E2" s="9"/>
@@ -1009,7 +1031,7 @@
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -1021,7 +1043,7 @@
     </row>
     <row r="4" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -1033,7 +1055,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -1045,13 +1067,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1060,7 +1082,7 @@
     </row>
     <row r="7" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -1072,7 +1094,7 @@
     </row>
     <row r="8" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -1084,7 +1106,7 @@
     </row>
     <row r="9" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -1096,10 +1118,10 @@
     </row>
     <row r="10" spans="1:12" s="10" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -1122,10 +1144,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>17</v>
@@ -1143,7 +1165,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>15</v>
@@ -1166,7 +1188,7 @@
     </row>
     <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>14</v>
@@ -1187,21 +1209,21 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="10" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -1224,7 +1246,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
@@ -1246,7 +1268,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>15</v>
@@ -1269,7 +1291,7 @@
     </row>
     <row r="18" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>14</v>
@@ -1281,7 +1303,7 @@
         <v>23</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="2">
         <v>2</v>
@@ -1290,21 +1312,21 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="10" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -1313,13 +1335,13 @@
         <v>3</v>
       </c>
       <c r="I20" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" s="10">
         <v>1</v>
       </c>
       <c r="K20" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20" s="10">
         <v>4</v>
@@ -1327,7 +1349,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -1349,7 +1371,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>15</v>
@@ -1372,7 +1394,7 @@
     </row>
     <row r="23" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>22</v>
@@ -1392,21 +1414,21 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="10" customFormat="1" ht="156" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -1429,7 +1451,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>15</v>
@@ -1439,10 +1461,10 @@
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="G26" s="6">
         <v>1</v>
@@ -1450,13 +1472,13 @@
     </row>
     <row r="27" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>24</v>
@@ -1473,18 +1495,18 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="G28" s="6">
         <v>6</v>
@@ -1492,21 +1514,21 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="10" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>73</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -1529,42 +1551,40 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G31" s="2">
         <v>4</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="G32" s="2">
         <v>4</v>
@@ -1572,19 +1592,19 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="G33" s="2">
         <v>5</v>
@@ -1595,7 +1615,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B34" s="2"/>
       <c r="E34" s="2"/>
@@ -1604,10 +1624,10 @@
     </row>
     <row r="35" spans="1:12" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -1630,19 +1650,19 @@
     </row>
     <row r="36" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="G36" s="2">
         <v>0</v>
@@ -1650,19 +1670,19 @@
     </row>
     <row r="37" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
@@ -1673,19 +1693,19 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G38" s="3">
         <v>6</v>
@@ -1693,14 +1713,14 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1708,11 +1728,11 @@
     </row>
     <row r="40" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" s="9"/>
       <c r="D40" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
@@ -1735,11 +1755,11 @@
     </row>
     <row r="41" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B41" s="9"/>
       <c r="D41" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
@@ -1762,11 +1782,11 @@
     </row>
     <row r="42" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B42" s="9"/>
       <c r="D42" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -1785,6 +1805,62 @@
       </c>
       <c r="L42" s="10">
         <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="24" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/KGA_Error/Assets/Resources/DataTable.xlsx
+++ b/KGA_Error/Assets/Resources/DataTable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KGA_Error\KGA_Error\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F655AE29-AA9A-4A4C-866E-CB5BCA9965FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="7380"/>
+    <workbookView xWindow="30090" yWindow="2880" windowWidth="27285" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataTable" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="145">
   <si>
     <t>Script</t>
   </si>
@@ -402,14 +403,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>kill</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>kill</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2004</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -506,26 +499,46 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>haha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hahahahah</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>9000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>haha</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hahahahah</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>9001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -534,30 +547,98 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>9003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9005</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9006</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9007</t>
+    <t>7001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>getout</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>getout!!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>damaged</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지친다…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마가 이 게임 사지 말랬는데…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마말 들을걸….</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>춥다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간이 얼마나 지난거지?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기서 나갈 수는 있는 걸까….</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴실해라</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -669,7 +750,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -946,11 +1027,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -981,10 +1062,10 @@
         <v>75</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -993,21 +1074,21 @@
         <v>2</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" s="9"/>
       <c r="E2" s="9"/>
@@ -1019,15 +1100,6 @@
       <c r="I2" s="10">
         <v>4</v>
       </c>
-      <c r="J2" s="10">
-        <v>3</v>
-      </c>
-      <c r="K2" s="10">
-        <v>2</v>
-      </c>
-      <c r="L2" s="10">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
@@ -1212,7 +1284,7 @@
         <v>77</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>78</v>
@@ -1312,13 +1384,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="10" customFormat="1" ht="144" x14ac:dyDescent="0.3">
@@ -1414,13 +1486,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="10" customFormat="1" ht="156" x14ac:dyDescent="0.3">
@@ -1514,13 +1586,13 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="10" customFormat="1" ht="36" x14ac:dyDescent="0.3">
@@ -1601,10 +1673,10 @@
         <v>31</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G33" s="2">
         <v>5</v>
@@ -1615,7 +1687,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B34" s="2"/>
       <c r="E34" s="2"/>
@@ -1659,10 +1731,10 @@
         <v>33</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G36" s="2">
         <v>0</v>
@@ -1678,11 +1750,11 @@
       <c r="C37" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>88</v>
+      <c r="E37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
@@ -1713,14 +1785,14 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1728,11 +1800,11 @@
     </row>
     <row r="40" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B40" s="9"/>
       <c r="D40" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
@@ -1746,126 +1818,277 @@
       <c r="J40" s="10">
         <v>4</v>
       </c>
-      <c r="K40" s="10">
+    </row>
+    <row r="41" spans="1:12" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="6">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="10">
+        <v>6</v>
+      </c>
+      <c r="I45" s="10">
+        <v>3</v>
+      </c>
+      <c r="J45" s="10">
+        <v>4</v>
+      </c>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+    </row>
+    <row r="46" spans="1:12" ht="84" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="60" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="10">
         <v>1</v>
       </c>
-      <c r="L40" s="10">
+      <c r="I50" s="10">
+        <v>3</v>
+      </c>
+      <c r="J50" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="D41" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="10">
-        <v>6</v>
-      </c>
-      <c r="I41" s="10">
-        <v>3</v>
-      </c>
-      <c r="J41" s="10">
-        <v>4</v>
-      </c>
-      <c r="K41" s="10">
-        <v>1</v>
-      </c>
-      <c r="L41" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="D42" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="10">
-        <v>6</v>
-      </c>
-      <c r="I42" s="10">
-        <v>3</v>
-      </c>
-      <c r="J42" s="10">
-        <v>4</v>
-      </c>
-      <c r="K42" s="10">
-        <v>1</v>
-      </c>
-      <c r="L42" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="B56" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>9</v>
+      <c r="B57" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/KGA_Error/Assets/Resources/DataTable.xlsx
+++ b/KGA_Error/Assets/Resources/DataTable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KGA_Error\KGA_Error\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F655AE29-AA9A-4A4C-866E-CB5BCA9965FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30090" yWindow="2880" windowWidth="27285" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30090" yWindow="2880" windowWidth="27285" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="DataTable" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="145">
   <si>
     <t>Script</t>
   </si>
@@ -455,10 +454,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>:)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TwoButton_L</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -491,10 +486,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>home</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>8000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -632,14 +623,22 @@
   </si>
   <si>
     <t>퇴실해라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetOut</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1@#$%6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -671,6 +670,15 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -701,13 +709,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -747,10 +758,14 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1027,11 +1042,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A47" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1062,10 +1077,10 @@
         <v>75</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -1074,21 +1089,21 @@
         <v>2</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="9"/>
       <c r="E2" s="9"/>
@@ -1098,7 +1113,16 @@
         <v>0</v>
       </c>
       <c r="I2" s="10">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10">
+        <v>0</v>
+      </c>
+      <c r="L2" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -1661,6 +1685,9 @@
       <c r="G32" s="2">
         <v>4</v>
       </c>
+      <c r="H32" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
@@ -1673,23 +1700,26 @@
         <v>31</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G33" s="2">
         <v>5</v>
       </c>
-      <c r="H33" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B34" s="2"/>
+      <c r="C34" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -1708,7 +1738,7 @@
         <v>6</v>
       </c>
       <c r="I35" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J35" s="10">
         <v>3</v>
@@ -1731,10 +1761,10 @@
         <v>33</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G36" s="2">
         <v>0</v>
@@ -1789,7 +1819,7 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="3" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>95</v>
@@ -1800,41 +1830,44 @@
     </row>
     <row r="40" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B40" s="9"/>
-      <c r="D40" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I40" s="10">
         <v>3</v>
       </c>
       <c r="J40" s="10">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="K40" s="10">
+        <v>0</v>
+      </c>
+      <c r="L40" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G41" s="2">
         <v>0</v>
@@ -1847,27 +1880,25 @@
     </row>
     <row r="42" spans="1:12" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G42" s="2">
         <v>0</v>
       </c>
-      <c r="H42" s="6">
-        <v>5</v>
-      </c>
+      <c r="H42" s="6"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -1875,19 +1906,19 @@
     </row>
     <row r="43" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G43" s="3">
         <v>6</v>
@@ -1895,20 +1926,20 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="10"/>
@@ -1917,7 +1948,7 @@
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I45" s="10">
         <v>3</v>
@@ -1925,24 +1956,28 @@
       <c r="J45" s="10">
         <v>4</v>
       </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
+      <c r="K45" s="10">
+        <v>0</v>
+      </c>
+      <c r="L45" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:12" ht="84" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G46" s="2">
         <v>0</v>
@@ -1950,19 +1985,19 @@
     </row>
     <row r="47" spans="1:12" ht="60" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G47" s="2">
         <v>0</v>
@@ -1973,42 +2008,42 @@
     </row>
     <row r="48" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G48" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B50" s="9"/>
       <c r="E50" s="9"/>
@@ -2018,77 +2053,86 @@
         <v>1</v>
       </c>
       <c r="I50" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J50" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K50" s="10">
+        <v>0</v>
+      </c>
+      <c r="L50" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C34" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/KGA_Error/Assets/Resources/DataTable.xlsx
+++ b/KGA_Error/Assets/Resources/DataTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="151">
   <si>
     <t>Script</t>
   </si>
@@ -35,41 +35,10 @@
     <t>BGM</t>
   </si>
   <si>
-    <t>Welcome</t>
-  </si>
-  <si>
-    <t>Thanks for purchasing our newly
-devleoped COOL DIVE game</t>
-  </si>
-  <si>
-    <t>COOL DIVE game is very cool game</t>
-  </si>
-  <si>
-    <t>and super amazing game</t>
-  </si>
-  <si>
-    <t>But you need to realize that we
-have lock down system to prevent
-from game addiction</t>
-  </si>
-  <si>
-    <t>We do not reccommend playing for
-longer than 3 hours. It makes you
-feel very dangerous.</t>
-  </si>
-  <si>
-    <t>With that, we thank you again
-And welcom COOL DIVE!</t>
-  </si>
-  <si>
     <t>Index</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Is This face happy or sad?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Happy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -78,15 +47,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>A father of three passed away in traffic accident.
-How does this make you feel?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>How does this music make you feel?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DoorName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -107,15 +67,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Is This face sad?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A father of three burned to death.
-How does this make you feel?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Sad</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -128,10 +79,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>well mayby the coding AI can't fully comprehend what a human is</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -149,10 +96,6 @@
   </si>
   <si>
     <t>Exit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>he's in a better Place than you</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -277,34 +220,400 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Is This face happy or sad?</t>
+    <t>2000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10908
+&lt;cranial damage&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OneButton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Push</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>room</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Music</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>happy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>home</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>End</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>End</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TwoButton_L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TwoButton_R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turn1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turn2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turn3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turn4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>haha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hahahahah</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>getout</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>getout!!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>damaged</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마가 이 게임 사지 말랬는데…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마말 들을걸….</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>춥다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간이 얼마나 지난거지?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기서 나갈 수는 있는 걸까….</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴실해라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetOut</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1@#$%6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지친다…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반갑습니다!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COOL MOON에 들어가기 전,
+당신이 로봇이 아님을 증명하는
+간단한 테스트가 있으니!
+가볍게 즐겨주시길 바랍니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COOL MOON은 
+유저의 뇌파에 직접 접근하여
+현실보다 더 현실같은 경험을 선사합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주의사항을 잘 숙지해 주시길 바라며,
+다시한번 COOL MOON에 오신 것을
+환영합니다!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안전하게 프로그램이 종료되지 않은 상태에서
+VR기기를 벗게 되면
+두뇌에 치명적인 손상이 있을 수 있으니
+주의 부탁드립니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3시간 이상 COOL MOON에 접속 시
+건강에 악영향이 있을 수 있고,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_MOON_의 신작
+COOL MOON의 세계로 오신 것을
+환영합니다!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Consciousness-Transmission
 HumanTest Protocol (HTP0.13a)
-Test Log 2
-&lt;Anomalies detected during recursive cerebral analysis&gt;
+Human_Test_Log_1
+&lt;두뇌 분석 중 이상 징후 발견&gt;
 &lt;99.964% Human&gt;
+다시 시도해 주세요.
+_MOON_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFaceTest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HappyHappy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 얼굴은 행복해보이나요 슬퍼보이나요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 음악의 분위기는 어떤가요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3명의 자식을 둔 아버지가 교통사고로 사망했습니다.
+당신이 그 아버지의 자식이었다면
+기분이 어떨까요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 얼굴은 슬퍼보이나요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 음악의 분위기? 어떤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망했습니다. 3명의 자식을 둔 아버지가 
+당신이 그 아버지의 자식이었다면
+교통사고?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consciousness-Transmission
+HumanTest Protocol (HTP0.13a)
+Human_Test_Log_2
+&lt;두뇌 분석 중 이상 징후 발견&gt;
+&lt;99.814% Human&gt;
+다시 시도해 주세요.
+Please Try Again</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consciousness-Transmission
+HumanTest Protocol (HTP0.13a)
+test_Log 1382
+&lt;두뇌 분석 중 치명적 오류 발견&gt;
+&lt;99.311% Human&gt;
 Please try again
-FullDive LTD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Human Consciousness
-test 3754
+OO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;치명적 오류 발견&gt;
+tes_3754
 &lt;98.297% Human&gt;
 Please try again
 Please try again
@@ -315,322 +624,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Consciousness-Transmission
-HumanTest Protocol (HTP0.13a)
-test_Log 1382
-&lt;Anomalies detected during recursive cerebral analysis&gt;
-&lt;99.311% Human&gt;
-Please try again
-LTD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Consciousness-Transmission
-HumanTest Protocol (HTP0.13a)
-Test Log 113
-&lt;Anomalies detected during recursive cerebral analysis&gt;
-&lt;99.542% Human&gt;
-Please try again
-FullDive LTD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test7871
+    <t>슬픈가요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복한가요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복한 노래인가요?
+행복한 노래인가요?행복한 노래인가요?행복한 노래인가요?
+행복한 노래인가요?행복한 노래인가요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FaceButton3.execute;</t>
+  </si>
+  <si>
+    <t>&lt;두뇌에 심각한 오류?&gt;
+test7871
 &lt;92.177% Human&gt;
 try again</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10908
-&lt;cranial damage&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OneButton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Push</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>check</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>error</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>error</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>room</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Music</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>happy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>happy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>check</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>home</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>End</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>End</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Home</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TwoButton_L</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TwoButton_R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turn1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turn2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turn3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turn4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>haha</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hahahahah</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9005</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9006</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9007</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>getout</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>getout!!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>damaged</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); Debug.Log("Error"); </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지친다…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>엄마가 이 게임 사지 말랬는데…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>엄마말 들을걸….</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>춥다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간이 얼마나 지난거지?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여기서 나갈 수는 있는 걸까….</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>퇴실해라</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetOut</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1@#$%6</t>
+    <t>AI가 인간을 제대로 이해하지 못하고 있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 지금 당장 여기서 나가야 한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameManager.Instance.CurrentScene;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>당장 나가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 나가랬지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -718,7 +760,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -760,6 +802,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1045,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A47" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1065,22 +1110,22 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -1089,21 +1134,21 @@
         <v>2</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="B2" s="9"/>
       <c r="E2" s="9"/>
@@ -1127,85 +1172,85 @@
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="48" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1214,10 +1259,10 @@
     </row>
     <row r="10" spans="1:12" s="10" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -1240,19 +1285,19 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -1261,19 +1306,19 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G12" s="4">
         <v>1</v>
@@ -1282,21 +1327,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G13" s="4">
         <v>2</v>
@@ -1305,21 +1350,21 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="10" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -1342,20 +1387,20 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G16" s="6">
         <v>3</v>
@@ -1364,19 +1409,19 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -1385,21 +1430,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G18" s="2">
         <v>2</v>
@@ -1408,21 +1453,21 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="10" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="10" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -1445,20 +1490,20 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>21</v>
+        <v>36</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G21" s="6">
         <v>3</v>
@@ -1467,19 +1512,19 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -1488,21 +1533,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G23" s="2">
         <v>2</v>
@@ -1510,21 +1555,21 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="10" customFormat="1" ht="156" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -1547,40 +1592,40 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="6" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="G26" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G27" s="6">
         <v>2</v>
@@ -1589,20 +1634,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="C28" s="5" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="6" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="G28" s="6">
         <v>6</v>
@@ -1610,21 +1657,21 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="10" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -1633,13 +1680,13 @@
         <v>6</v>
       </c>
       <c r="I30" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J30" s="10">
         <v>2</v>
       </c>
       <c r="K30" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30" s="10">
         <v>4</v>
@@ -1647,40 +1694,38 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F31" s="2"/>
       <c r="G31" s="2">
         <v>4</v>
       </c>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="G32" s="2">
         <v>4</v>
@@ -1691,19 +1736,19 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="G33" s="2">
         <v>5</v>
@@ -1711,14 +1756,14 @@
     </row>
     <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="13" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1726,10 +1771,10 @@
     </row>
     <row r="35" spans="1:12" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -1752,19 +1797,19 @@
     </row>
     <row r="36" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="G36" s="2">
         <v>0</v>
@@ -1772,19 +1817,19 @@
     </row>
     <row r="37" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
@@ -1795,19 +1840,19 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G38" s="3">
         <v>6</v>
@@ -1815,14 +1860,14 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1830,7 +1875,7 @@
     </row>
     <row r="40" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="B40" s="9"/>
       <c r="E40" s="9"/>
@@ -1854,20 +1899,20 @@
     </row>
     <row r="41" spans="1:12" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="G41" s="2">
         <v>0</v>
@@ -1880,20 +1925,20 @@
     </row>
     <row r="42" spans="1:12" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="G42" s="2">
         <v>0</v>
@@ -1906,19 +1951,19 @@
     </row>
     <row r="43" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="G43" s="3">
         <v>6</v>
@@ -1926,20 +1971,20 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="3" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="10"/>
@@ -1965,19 +2010,19 @@
     </row>
     <row r="46" spans="1:12" ht="84" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="G46" s="2">
         <v>0</v>
@@ -1985,19 +2030,19 @@
     </row>
     <row r="47" spans="1:12" ht="60" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="G47" s="2">
         <v>0</v>
@@ -2008,19 +2053,19 @@
     </row>
     <row r="48" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="G48" s="3">
         <v>6</v>
@@ -2028,14 +2073,14 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="3" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -2043,7 +2088,7 @@
     </row>
     <row r="50" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="B50" s="9"/>
       <c r="E50" s="9"/>
@@ -2067,10 +2112,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -2078,10 +2123,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -2089,42 +2134,42 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
